--- a/biology/Zoologie/Claude_Herbulot/Claude_Herbulot.xlsx
+++ b/biology/Zoologie/Claude_Herbulot/Claude_Herbulot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Herbulot (né à Charleville-Mézières le 12 septembre 1908 et mort le 19 janvier 2006 à Paris 15e[1]) est un entomologiste français qui était spécialisé dans les lépidoptères géomètres. Sa collection se trouve aujourd'hui à la Zoologische Staatssammlung München (Muséum zoologique) de Munich.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Herbulot (né à Charleville-Mézières le 12 septembre 1908 et mort le 19 janvier 2006 à Paris 15e) est un entomologiste français qui était spécialisé dans les lépidoptères géomètres. Sa collection se trouve aujourd'hui à la Zoologische Staatssammlung München (Muséum zoologique) de Munich.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La meilleure biographie parue est certainement celle de son ami Philippe Darge[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La meilleure biographie parue est certainement celle de son ami Philippe Darge.
 Il étudie d'abord les lépidoptères de sa région natale. Plus tard, il fait des voyages en Afrique et dans les pays orientaux et passe un certain temps à Madagascar pour y étudier la faune et décrire un tiers des Geometridae de l'île.
 Il a été élu président de la Société entomologique de France en 1953. La Médaille Ritter-von-Spix lui a été décernée par le muséum zoologique de Munich en 1999 et le prix Jacob-Hübner en 2002.
 </t>
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste de ses 286 publications est donnée par le muséum zoologique de Munich[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste de ses 286 publications est donnée par le muséum zoologique de Munich
 </t>
         </is>
       </c>
@@ -575,11 +591,48 @@
           <t>Genres, espèces et variétés décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le même musée indique 950 taxa décrits[4]. La liste complète devrait être publiée prochainement.
-Genres
-Trente genres sont attribués à Claude Herbulot, dont vingt-huit valides :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le même musée indique 950 taxa décrits. La liste complète devrait être publiée prochainement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Herbulot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Herbulot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genres, espèces et variétés décrits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trente genres sont attribués à Claude Herbulot, dont vingt-huit valides :
 Anticleora Herbulot, 1966
 Antilurga Herbulot, 1951
 Antozola Herbulot, 1992
@@ -595,7 +648,7 @@
 Hyalinometra Herbulot, 1972
 Hydatopsis Herbulot, 1968
 Klinzigidia Herbulot, 1982
-Malgassapeira Herbulot (cité dans la littérature mais n'a jamais fait l'objet d'une publication)[5]
+Malgassapeira Herbulot (cité dans la littérature mais n'a jamais fait l'objet d'une publication)
 Malgassorhoe Herbulot, 1955
 Malgassothisa Herbulot 1966
 Microlyces Herbulot 1981
@@ -607,42 +660,78 @@
 Protorhoe Herbulot, 1951
 Pseudolarentia Herbulot, 1955
 Rougeotiana Herbulot, 1983
-Rougeotiella Herbulot, 1984 (en replacement de Rougeotiana, nom déjà utilisé par Bernard Laporte pour désigner un nouveau genre de Noctuelles)[6]
+Rougeotiella Herbulot, 1984 (en replacement de Rougeotiana, nom déjà utilisé par Bernard Laporte pour désigner un nouveau genre de Noctuelles)
 Steganomima Herbulot, 1972
-Toulgoetia Herbulot, 1946
-Taxa référencés
-Une liste d'environ 400 de ses descriptions référencées est donnée par ailleurs[7].
+Toulgoetia Herbulot, 1946</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Herbulot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Herbulot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genres, espèces et variétés décrits</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxa référencés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une liste d'environ 400 de ses descriptions référencées est donnée par ailleurs.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Claude_Herbulot</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claude_Herbulot</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Noms de genre et d'espèces dédiés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée de Munich indique les 4 genres et 29 espèces décrites[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée de Munich indique les 4 genres et 29 espèces décrites.
 </t>
         </is>
       </c>
